--- a/Data/1_input_files/EIA/EIA_AEO_data_series_IDs.xlsx
+++ b/Data/1_input_files/EIA/EIA_AEO_data_series_IDs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skar\Box\EERE SA Decarbonization\1. Tool\EERE Tool\Data\Script_data_model\1_input_files\EIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatange\Documents\Repos\DECARB\Data\1_input_files\EIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B4A8B-6FE3-4FAF-8364-A31C2246A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5DE7C-2ABF-406A-BC44-4DAA112C56C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42610" yWindow="4920" windowWidth="29210" windowHeight="12870" activeTab="6" xr2:uid="{60E9A370-38DD-44FB-8204-2D13A9CE7D36}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{60E9A370-38DD-44FB-8204-2D13A9CE7D36}"/>
   </bookViews>
   <sheets>
     <sheet name="energy_demand" sheetId="1" r:id="rId1"/>
     <sheet name="energy_supply" sheetId="2" r:id="rId2"/>
-    <sheet name="energy_price" sheetId="5" r:id="rId3"/>
-    <sheet name="emissions_end_use" sheetId="3" r:id="rId4"/>
+    <sheet name="emissions_end_use" sheetId="3" r:id="rId3"/>
+    <sheet name="energy_price" sheetId="5" r:id="rId4"/>
     <sheet name="emissions_energy_type" sheetId="11" r:id="rId5"/>
     <sheet name="supplemental" sheetId="12" r:id="rId6"/>
     <sheet name="chemical_industry_supp" sheetId="13" r:id="rId7"/>
@@ -2776,7 +2776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3154,26 +3154,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7420A6F-EDD1-4AAE-8553-B21D16488D10}">
   <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26171875" customWidth="1"/>
+    <col min="7" max="7" width="18.83984375" customWidth="1"/>
+    <col min="8" max="8" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>216</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>216</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>216</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>216</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>216</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>216</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>216</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>216</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>216</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>216</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>216</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>216</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>216</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>216</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>216</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>216</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>216</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>216</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>216</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>216</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>216</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>216</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>216</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>216</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>216</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>216</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>216</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>216</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>216</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>216</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>216</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>216</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>216</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>216</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>216</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>216</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>216</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>216</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>216</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>216</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>216</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>216</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>216</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>216</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>216</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>216</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>216</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>216</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>216</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>216</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>216</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>216</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>216</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>216</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>216</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>216</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>216</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>216</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>216</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>216</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>216</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>216</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>216</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>216</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>216</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>216</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>216</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>216</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>216</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>216</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>216</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>216</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>216</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>216</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>216</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>216</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>216</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>216</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>216</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>216</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>216</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>216</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>216</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>216</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>216</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>216</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>216</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>216</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>216</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>216</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>216</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>216</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>216</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>216</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>216</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>216</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>216</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>216</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>216</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>216</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>216</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>216</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>216</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>216</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>216</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>216</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>216</v>
       </c>
@@ -13406,22 +13406,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB54F42-0B7D-4731-8C07-B29704704926}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.578125" customWidth="1"/>
+    <col min="7" max="7" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.3671875" customWidth="1"/>
+    <col min="11" max="11" width="92.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13459,7 +13461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -13494,7 +13496,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -13529,7 +13531,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>438</v>
       </c>
@@ -13564,7 +13566,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>438</v>
       </c>
@@ -13599,7 +13601,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -13634,7 +13636,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -13669,7 +13671,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>438</v>
       </c>
@@ -13739,7 +13741,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -13774,7 +13776,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>438</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>438</v>
       </c>
@@ -13844,7 +13846,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -13949,7 +13951,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>438</v>
       </c>
@@ -13984,7 +13986,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>438</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -14124,7 +14126,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>438</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>438</v>
       </c>
@@ -14194,7 +14196,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>438</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>438</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>438</v>
       </c>
@@ -14299,7 +14301,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>438</v>
       </c>
@@ -14340,26 +14342,1708 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A965A25B-CCB0-48CF-8160-61DED7869013}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:XFD71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.68359375" customWidth="1"/>
+    <col min="7" max="7" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.89453125" customWidth="1"/>
+    <col min="9" max="9" width="85.83984375" customWidth="1"/>
+    <col min="18" max="18" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>523</v>
+      </c>
+      <c r="I6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>525</v>
+      </c>
+      <c r="I8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>526</v>
+      </c>
+      <c r="I9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>527</v>
+      </c>
+      <c r="I10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" t="s">
+        <v>517</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>528</v>
+      </c>
+      <c r="I11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>530</v>
+      </c>
+      <c r="I13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>531</v>
+      </c>
+      <c r="I14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>532</v>
+      </c>
+      <c r="I15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" t="s">
+        <v>515</v>
+      </c>
+      <c r="E16" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>534</v>
+      </c>
+      <c r="I16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>537</v>
+      </c>
+      <c r="I18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>515</v>
+      </c>
+      <c r="E19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F19" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>538</v>
+      </c>
+      <c r="I19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>539</v>
+      </c>
+      <c r="D20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" t="s">
+        <v>517</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>540</v>
+      </c>
+      <c r="I20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>515</v>
+      </c>
+      <c r="E21" t="s">
+        <v>516</v>
+      </c>
+      <c r="F21" t="s">
+        <v>517</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>541</v>
+      </c>
+      <c r="I21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E22" t="s">
+        <v>516</v>
+      </c>
+      <c r="F22" t="s">
+        <v>517</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>542</v>
+      </c>
+      <c r="I22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>543</v>
+      </c>
+      <c r="I23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" t="s">
+        <v>517</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>544</v>
+      </c>
+      <c r="I24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>515</v>
+      </c>
+      <c r="E25" t="s">
+        <v>516</v>
+      </c>
+      <c r="F25" t="s">
+        <v>517</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>545</v>
+      </c>
+      <c r="I25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>515</v>
+      </c>
+      <c r="E26" t="s">
+        <v>516</v>
+      </c>
+      <c r="F26" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>546</v>
+      </c>
+      <c r="I26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>547</v>
+      </c>
+      <c r="I27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" t="s">
+        <v>516</v>
+      </c>
+      <c r="F28" t="s">
+        <v>517</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>549</v>
+      </c>
+      <c r="I28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>515</v>
+      </c>
+      <c r="E29" t="s">
+        <v>516</v>
+      </c>
+      <c r="F29" t="s">
+        <v>517</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>550</v>
+      </c>
+      <c r="I29" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>515</v>
+      </c>
+      <c r="E30" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" t="s">
+        <v>517</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>551</v>
+      </c>
+      <c r="I30" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" t="s">
+        <v>516</v>
+      </c>
+      <c r="F31" t="s">
+        <v>517</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>552</v>
+      </c>
+      <c r="I31" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>515</v>
+      </c>
+      <c r="E32" t="s">
+        <v>516</v>
+      </c>
+      <c r="F32" t="s">
+        <v>517</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>553</v>
+      </c>
+      <c r="I32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>515</v>
+      </c>
+      <c r="E33" t="s">
+        <v>516</v>
+      </c>
+      <c r="F33" t="s">
+        <v>517</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" t="s">
+        <v>516</v>
+      </c>
+      <c r="F34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>555</v>
+      </c>
+      <c r="I34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" t="s">
+        <v>516</v>
+      </c>
+      <c r="F35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>556</v>
+      </c>
+      <c r="I35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E36" t="s">
+        <v>516</v>
+      </c>
+      <c r="F36" t="s">
+        <v>517</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>557</v>
+      </c>
+      <c r="I36" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" t="s">
+        <v>516</v>
+      </c>
+      <c r="F37" t="s">
+        <v>517</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>558</v>
+      </c>
+      <c r="I37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" t="s">
+        <v>516</v>
+      </c>
+      <c r="F38" t="s">
+        <v>517</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>559</v>
+      </c>
+      <c r="I38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" t="s">
+        <v>517</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>560</v>
+      </c>
+      <c r="I39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>515</v>
+      </c>
+      <c r="E40" t="s">
+        <v>516</v>
+      </c>
+      <c r="F40" t="s">
+        <v>517</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>561</v>
+      </c>
+      <c r="I40" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>515</v>
+      </c>
+      <c r="E41" t="s">
+        <v>516</v>
+      </c>
+      <c r="F41" t="s">
+        <v>517</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>562</v>
+      </c>
+      <c r="I41" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>515</v>
+      </c>
+      <c r="E42" t="s">
+        <v>516</v>
+      </c>
+      <c r="F42" t="s">
+        <v>517</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>515</v>
+      </c>
+      <c r="E43" t="s">
+        <v>516</v>
+      </c>
+      <c r="F43" t="s">
+        <v>517</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>564</v>
+      </c>
+      <c r="I43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>515</v>
+      </c>
+      <c r="E44" t="s">
+        <v>516</v>
+      </c>
+      <c r="F44" t="s">
+        <v>517</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>565</v>
+      </c>
+      <c r="I44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>515</v>
+      </c>
+      <c r="E45" t="s">
+        <v>516</v>
+      </c>
+      <c r="F45" t="s">
+        <v>517</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>566</v>
+      </c>
+      <c r="I45" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>515</v>
+      </c>
+      <c r="E46" t="s">
+        <v>516</v>
+      </c>
+      <c r="F46" t="s">
+        <v>517</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>567</v>
+      </c>
+      <c r="I46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" t="s">
+        <v>515</v>
+      </c>
+      <c r="E47" t="s">
+        <v>516</v>
+      </c>
+      <c r="F47" t="s">
+        <v>517</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>568</v>
+      </c>
+      <c r="I47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" t="s">
+        <v>515</v>
+      </c>
+      <c r="E48" t="s">
+        <v>516</v>
+      </c>
+      <c r="F48" t="s">
+        <v>517</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>569</v>
+      </c>
+      <c r="I48" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" t="s">
+        <v>515</v>
+      </c>
+      <c r="E49" t="s">
+        <v>516</v>
+      </c>
+      <c r="F49" t="s">
+        <v>517</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>570</v>
+      </c>
+      <c r="I49" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>359</v>
+      </c>
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50" t="s">
+        <v>515</v>
+      </c>
+      <c r="E50" t="s">
+        <v>516</v>
+      </c>
+      <c r="F50" t="s">
+        <v>517</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C51" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" t="s">
+        <v>515</v>
+      </c>
+      <c r="E51" t="s">
+        <v>516</v>
+      </c>
+      <c r="F51" t="s">
+        <v>517</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>572</v>
+      </c>
+      <c r="I51" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" t="s">
+        <v>515</v>
+      </c>
+      <c r="E52" t="s">
+        <v>516</v>
+      </c>
+      <c r="F52" t="s">
+        <v>517</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>573</v>
+      </c>
+      <c r="I52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>418</v>
+      </c>
+      <c r="D53" t="s">
+        <v>515</v>
+      </c>
+      <c r="E53" t="s">
+        <v>516</v>
+      </c>
+      <c r="F53" t="s">
+        <v>517</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>574</v>
+      </c>
+      <c r="I53" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" t="s">
+        <v>515</v>
+      </c>
+      <c r="E54" t="s">
+        <v>516</v>
+      </c>
+      <c r="F54" t="s">
+        <v>517</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>575</v>
+      </c>
+      <c r="I54" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" t="s">
+        <v>515</v>
+      </c>
+      <c r="E55" t="s">
+        <v>516</v>
+      </c>
+      <c r="F55" t="s">
+        <v>517</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>576</v>
+      </c>
+      <c r="I55" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>515</v>
+      </c>
+      <c r="E56" t="s">
+        <v>516</v>
+      </c>
+      <c r="F56" t="s">
+        <v>517</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>577</v>
+      </c>
+      <c r="I56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" t="s">
+        <v>515</v>
+      </c>
+      <c r="E57" t="s">
+        <v>516</v>
+      </c>
+      <c r="F57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>578</v>
+      </c>
+      <c r="I57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29AAA8-247C-4A33-A155-9C89CEF3E880}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" customWidth="1"/>
+    <col min="6" max="6" width="47.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -14385,7 +16069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -14408,7 +16092,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -14434,7 +16118,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -14460,7 +16144,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -14483,7 +16167,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -14509,7 +16193,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -14535,7 +16219,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -14558,7 +16242,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>512</v>
       </c>
@@ -14584,1687 +16268,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A965A25B-CCB0-48CF-8160-61DED7869013}">
-  <dimension ref="A1:J57"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="50" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>521</v>
-      </c>
-      <c r="I4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>515</v>
-      </c>
-      <c r="E5" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" t="s">
-        <v>517</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>522</v>
-      </c>
-      <c r="I5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" t="s">
-        <v>517</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>523</v>
-      </c>
-      <c r="I6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E7" t="s">
-        <v>516</v>
-      </c>
-      <c r="F7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>515</v>
-      </c>
-      <c r="E8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F8" t="s">
-        <v>517</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>525</v>
-      </c>
-      <c r="I8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F9" t="s">
-        <v>517</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>526</v>
-      </c>
-      <c r="I9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>515</v>
-      </c>
-      <c r="E10" t="s">
-        <v>516</v>
-      </c>
-      <c r="F10" t="s">
-        <v>517</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>527</v>
-      </c>
-      <c r="I10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>515</v>
-      </c>
-      <c r="E11" t="s">
-        <v>516</v>
-      </c>
-      <c r="F11" t="s">
-        <v>517</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>528</v>
-      </c>
-      <c r="I11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>515</v>
-      </c>
-      <c r="E12" t="s">
-        <v>516</v>
-      </c>
-      <c r="F12" t="s">
-        <v>517</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>529</v>
-      </c>
-      <c r="I12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>515</v>
-      </c>
-      <c r="E13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" t="s">
-        <v>517</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>530</v>
-      </c>
-      <c r="I13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" t="s">
-        <v>516</v>
-      </c>
-      <c r="F14" t="s">
-        <v>517</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>531</v>
-      </c>
-      <c r="I14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>515</v>
-      </c>
-      <c r="E15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F15" t="s">
-        <v>517</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>532</v>
-      </c>
-      <c r="I15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>533</v>
-      </c>
-      <c r="D16" t="s">
-        <v>515</v>
-      </c>
-      <c r="E16" t="s">
-        <v>516</v>
-      </c>
-      <c r="F16" t="s">
-        <v>517</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>534</v>
-      </c>
-      <c r="I16" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>515</v>
-      </c>
-      <c r="E17" t="s">
-        <v>516</v>
-      </c>
-      <c r="F17" t="s">
-        <v>517</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>535</v>
-      </c>
-      <c r="I17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" t="s">
-        <v>515</v>
-      </c>
-      <c r="E18" t="s">
-        <v>516</v>
-      </c>
-      <c r="F18" t="s">
-        <v>517</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>537</v>
-      </c>
-      <c r="I18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>515</v>
-      </c>
-      <c r="E19" t="s">
-        <v>516</v>
-      </c>
-      <c r="F19" t="s">
-        <v>517</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>538</v>
-      </c>
-      <c r="I19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D20" t="s">
-        <v>515</v>
-      </c>
-      <c r="E20" t="s">
-        <v>516</v>
-      </c>
-      <c r="F20" t="s">
-        <v>517</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>540</v>
-      </c>
-      <c r="I20" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>515</v>
-      </c>
-      <c r="E21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F21" t="s">
-        <v>517</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>541</v>
-      </c>
-      <c r="I21" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>515</v>
-      </c>
-      <c r="E22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F22" t="s">
-        <v>517</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>542</v>
-      </c>
-      <c r="I22" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" t="s">
-        <v>515</v>
-      </c>
-      <c r="E23" t="s">
-        <v>516</v>
-      </c>
-      <c r="F23" t="s">
-        <v>517</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>543</v>
-      </c>
-      <c r="I23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>515</v>
-      </c>
-      <c r="E24" t="s">
-        <v>516</v>
-      </c>
-      <c r="F24" t="s">
-        <v>517</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>544</v>
-      </c>
-      <c r="I24" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" t="s">
-        <v>515</v>
-      </c>
-      <c r="E25" t="s">
-        <v>516</v>
-      </c>
-      <c r="F25" t="s">
-        <v>517</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>545</v>
-      </c>
-      <c r="I25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" t="s">
-        <v>515</v>
-      </c>
-      <c r="E26" t="s">
-        <v>516</v>
-      </c>
-      <c r="F26" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>546</v>
-      </c>
-      <c r="I26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" t="s">
-        <v>515</v>
-      </c>
-      <c r="E27" t="s">
-        <v>516</v>
-      </c>
-      <c r="F27" t="s">
-        <v>517</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>547</v>
-      </c>
-      <c r="I27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D28" t="s">
-        <v>515</v>
-      </c>
-      <c r="E28" t="s">
-        <v>516</v>
-      </c>
-      <c r="F28" t="s">
-        <v>517</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>549</v>
-      </c>
-      <c r="I28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E29" t="s">
-        <v>516</v>
-      </c>
-      <c r="F29" t="s">
-        <v>517</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>550</v>
-      </c>
-      <c r="I29" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>515</v>
-      </c>
-      <c r="E30" t="s">
-        <v>516</v>
-      </c>
-      <c r="F30" t="s">
-        <v>517</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>551</v>
-      </c>
-      <c r="I30" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>515</v>
-      </c>
-      <c r="E31" t="s">
-        <v>516</v>
-      </c>
-      <c r="F31" t="s">
-        <v>517</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>552</v>
-      </c>
-      <c r="I31" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>515</v>
-      </c>
-      <c r="E32" t="s">
-        <v>516</v>
-      </c>
-      <c r="F32" t="s">
-        <v>517</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>553</v>
-      </c>
-      <c r="I32" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>515</v>
-      </c>
-      <c r="E33" t="s">
-        <v>516</v>
-      </c>
-      <c r="F33" t="s">
-        <v>517</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>554</v>
-      </c>
-      <c r="I33" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>515</v>
-      </c>
-      <c r="E34" t="s">
-        <v>516</v>
-      </c>
-      <c r="F34" t="s">
-        <v>517</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>555</v>
-      </c>
-      <c r="I34" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>515</v>
-      </c>
-      <c r="E35" t="s">
-        <v>516</v>
-      </c>
-      <c r="F35" t="s">
-        <v>517</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>556</v>
-      </c>
-      <c r="I35" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E36" t="s">
-        <v>516</v>
-      </c>
-      <c r="F36" t="s">
-        <v>517</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>557</v>
-      </c>
-      <c r="I36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E37" t="s">
-        <v>516</v>
-      </c>
-      <c r="F37" t="s">
-        <v>517</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>558</v>
-      </c>
-      <c r="I37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E38" t="s">
-        <v>516</v>
-      </c>
-      <c r="F38" t="s">
-        <v>517</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s">
-        <v>559</v>
-      </c>
-      <c r="I38" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>515</v>
-      </c>
-      <c r="E39" t="s">
-        <v>516</v>
-      </c>
-      <c r="F39" t="s">
-        <v>517</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>560</v>
-      </c>
-      <c r="I39" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>515</v>
-      </c>
-      <c r="E40" t="s">
-        <v>516</v>
-      </c>
-      <c r="F40" t="s">
-        <v>517</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
-        <v>561</v>
-      </c>
-      <c r="I40" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>515</v>
-      </c>
-      <c r="E41" t="s">
-        <v>516</v>
-      </c>
-      <c r="F41" t="s">
-        <v>517</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>562</v>
-      </c>
-      <c r="I41" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>515</v>
-      </c>
-      <c r="E42" t="s">
-        <v>516</v>
-      </c>
-      <c r="F42" t="s">
-        <v>517</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s">
-        <v>563</v>
-      </c>
-      <c r="I42" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>515</v>
-      </c>
-      <c r="E43" t="s">
-        <v>516</v>
-      </c>
-      <c r="F43" t="s">
-        <v>517</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s">
-        <v>564</v>
-      </c>
-      <c r="I43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" t="s">
-        <v>287</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>515</v>
-      </c>
-      <c r="E44" t="s">
-        <v>516</v>
-      </c>
-      <c r="F44" t="s">
-        <v>517</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s">
-        <v>565</v>
-      </c>
-      <c r="I44" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>515</v>
-      </c>
-      <c r="E45" t="s">
-        <v>516</v>
-      </c>
-      <c r="F45" t="s">
-        <v>517</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
-        <v>566</v>
-      </c>
-      <c r="I45" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" t="s">
-        <v>313</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>515</v>
-      </c>
-      <c r="E46" t="s">
-        <v>516</v>
-      </c>
-      <c r="F46" t="s">
-        <v>517</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s">
-        <v>567</v>
-      </c>
-      <c r="I46" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" t="s">
-        <v>359</v>
-      </c>
-      <c r="C47" t="s">
-        <v>360</v>
-      </c>
-      <c r="D47" t="s">
-        <v>515</v>
-      </c>
-      <c r="E47" t="s">
-        <v>516</v>
-      </c>
-      <c r="F47" t="s">
-        <v>517</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>568</v>
-      </c>
-      <c r="I47" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" t="s">
-        <v>359</v>
-      </c>
-      <c r="C48" t="s">
-        <v>371</v>
-      </c>
-      <c r="D48" t="s">
-        <v>515</v>
-      </c>
-      <c r="E48" t="s">
-        <v>516</v>
-      </c>
-      <c r="F48" t="s">
-        <v>517</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
-        <v>569</v>
-      </c>
-      <c r="I48" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" t="s">
-        <v>359</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49" t="s">
-        <v>515</v>
-      </c>
-      <c r="E49" t="s">
-        <v>516</v>
-      </c>
-      <c r="F49" t="s">
-        <v>517</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s">
-        <v>570</v>
-      </c>
-      <c r="I49" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>359</v>
-      </c>
-      <c r="C50" t="s">
-        <v>389</v>
-      </c>
-      <c r="D50" t="s">
-        <v>515</v>
-      </c>
-      <c r="E50" t="s">
-        <v>516</v>
-      </c>
-      <c r="F50" t="s">
-        <v>517</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>571</v>
-      </c>
-      <c r="I50" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" t="s">
-        <v>359</v>
-      </c>
-      <c r="C51" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" t="s">
-        <v>515</v>
-      </c>
-      <c r="E51" t="s">
-        <v>516</v>
-      </c>
-      <c r="F51" t="s">
-        <v>517</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
-        <v>572</v>
-      </c>
-      <c r="I51" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" t="s">
-        <v>407</v>
-      </c>
-      <c r="C52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D52" t="s">
-        <v>515</v>
-      </c>
-      <c r="E52" t="s">
-        <v>516</v>
-      </c>
-      <c r="F52" t="s">
-        <v>517</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>573</v>
-      </c>
-      <c r="I52" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C53" t="s">
-        <v>418</v>
-      </c>
-      <c r="D53" t="s">
-        <v>515</v>
-      </c>
-      <c r="E53" t="s">
-        <v>516</v>
-      </c>
-      <c r="F53" t="s">
-        <v>517</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>574</v>
-      </c>
-      <c r="I53" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B54" t="s">
-        <v>407</v>
-      </c>
-      <c r="C54" t="s">
-        <v>427</v>
-      </c>
-      <c r="D54" t="s">
-        <v>515</v>
-      </c>
-      <c r="E54" t="s">
-        <v>516</v>
-      </c>
-      <c r="F54" t="s">
-        <v>517</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s">
-        <v>575</v>
-      </c>
-      <c r="I54" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" t="s">
-        <v>324</v>
-      </c>
-      <c r="C55" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" t="s">
-        <v>515</v>
-      </c>
-      <c r="E55" t="s">
-        <v>516</v>
-      </c>
-      <c r="F55" t="s">
-        <v>517</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>576</v>
-      </c>
-      <c r="I55" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>324</v>
-      </c>
-      <c r="C56" t="s">
-        <v>336</v>
-      </c>
-      <c r="D56" t="s">
-        <v>515</v>
-      </c>
-      <c r="E56" t="s">
-        <v>516</v>
-      </c>
-      <c r="F56" t="s">
-        <v>517</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" t="s">
-        <v>577</v>
-      </c>
-      <c r="I56" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C57" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" t="s">
-        <v>515</v>
-      </c>
-      <c r="E57" t="s">
-        <v>516</v>
-      </c>
-      <c r="F57" t="s">
-        <v>517</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
-        <v>578</v>
-      </c>
-      <c r="I57" t="s">
-        <v>519</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16272,24 +16275,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E3702-1C54-48E6-B08D-F8AADF4BA9A1}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16318,7 +16321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16344,7 +16347,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -16396,7 +16399,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -16422,7 +16425,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -16448,7 +16451,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -16500,7 +16503,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -16526,7 +16529,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -16552,7 +16555,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -16578,7 +16581,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>438</v>
       </c>
@@ -16604,7 +16607,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -16630,7 +16633,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -16656,7 +16659,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -16682,7 +16685,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -16708,7 +16711,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -16734,7 +16737,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -16760,7 +16763,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
@@ -16799,25 +16802,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808A152-A073-4948-8EE8-770750E38414}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.578125" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.41796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16846,7 +16849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -16904,7 +16907,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -16933,7 +16936,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -16962,7 +16965,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -16991,7 +16994,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -17020,7 +17023,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -17049,7 +17052,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -17078,7 +17081,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -17136,7 +17139,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>438</v>
       </c>
@@ -17165,7 +17168,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>438</v>
       </c>
@@ -17194,7 +17197,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>438</v>
       </c>
@@ -17223,7 +17226,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>438</v>
       </c>
@@ -17252,7 +17255,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>438</v>
       </c>
@@ -17281,7 +17284,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>438</v>
       </c>
@@ -17310,7 +17313,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>438</v>
       </c>
@@ -17339,7 +17342,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -17368,7 +17371,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -17397,7 +17400,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -17426,7 +17429,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -17455,7 +17458,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -17484,7 +17487,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -17513,7 +17516,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -17542,7 +17545,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -17571,7 +17574,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -17600,7 +17603,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -17629,7 +17632,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>438</v>
       </c>
@@ -17658,7 +17661,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>438</v>
       </c>
@@ -17687,7 +17690,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>438</v>
       </c>
@@ -17716,7 +17719,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>438</v>
       </c>
@@ -17745,7 +17748,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>438</v>
       </c>
@@ -17774,7 +17777,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>438</v>
       </c>
@@ -17803,7 +17806,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>438</v>
       </c>
@@ -17832,7 +17835,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -17861,7 +17864,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>438</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>438</v>
       </c>
@@ -17916,10 +17919,10 @@
         <v>653</v>
       </c>
       <c r="I38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>438</v>
       </c>
@@ -17948,7 +17951,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -17977,7 +17980,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>438</v>
       </c>
@@ -18006,7 +18009,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>438</v>
       </c>
@@ -18035,7 +18038,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>438</v>
       </c>
@@ -18064,7 +18067,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>438</v>
       </c>
@@ -18093,7 +18096,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>438</v>
       </c>
@@ -18122,7 +18125,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>438</v>
       </c>
@@ -18151,7 +18154,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>438</v>
       </c>
@@ -18180,7 +18183,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>438</v>
       </c>
@@ -18209,7 +18212,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>438</v>
       </c>
@@ -18238,7 +18241,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>438</v>
       </c>
@@ -18267,7 +18270,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>438</v>
       </c>
@@ -18296,7 +18299,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>438</v>
       </c>
@@ -18325,7 +18328,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>438</v>
       </c>
@@ -18354,7 +18357,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -18383,7 +18386,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -18412,7 +18415,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>438</v>
       </c>
@@ -18441,7 +18444,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>438</v>
       </c>
@@ -18470,7 +18473,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>438</v>
       </c>
@@ -18499,7 +18502,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>438</v>
       </c>
@@ -18528,7 +18531,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>438</v>
       </c>
@@ -18557,7 +18560,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>438</v>
       </c>
@@ -18586,7 +18589,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>438</v>
       </c>
@@ -18615,7 +18618,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>438</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -18673,7 +18676,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -18702,7 +18705,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -18731,7 +18734,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -18760,7 +18763,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -18789,7 +18792,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -18818,7 +18821,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -18847,7 +18850,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -18876,7 +18879,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -18905,7 +18908,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -18934,7 +18937,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -18963,7 +18966,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -18992,7 +18995,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -19021,7 +19024,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -19050,7 +19053,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -19079,7 +19082,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -19108,7 +19111,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -19137,7 +19140,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -19166,7 +19169,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -19224,7 +19227,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -19253,7 +19256,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -19282,7 +19285,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -19311,7 +19314,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -19340,7 +19343,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -19369,7 +19372,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -19398,7 +19401,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -19427,7 +19430,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -19456,7 +19459,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -19485,7 +19488,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -19514,7 +19517,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -19543,7 +19546,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -19601,7 +19604,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -19630,7 +19633,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -19659,7 +19662,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -19688,7 +19691,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -19717,7 +19720,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -19746,7 +19749,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -19775,7 +19778,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -19804,7 +19807,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -19833,7 +19836,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -19862,7 +19865,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -19891,7 +19894,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -19920,7 +19923,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -19949,7 +19952,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -19978,7 +19981,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -20007,7 +20010,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -20036,7 +20039,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -20065,7 +20068,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -20094,7 +20097,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -20123,7 +20126,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -20152,7 +20155,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -20181,7 +20184,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -20210,7 +20213,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -20239,7 +20242,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -20268,7 +20271,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -20326,7 +20329,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -20355,7 +20358,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -20384,7 +20387,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -20413,7 +20416,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>103</v>
       </c>
@@ -20442,7 +20445,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -20471,7 +20474,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -20500,7 +20503,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -20529,7 +20532,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -20558,7 +20561,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -20587,7 +20590,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -20616,7 +20619,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -20645,7 +20648,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -20674,7 +20677,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -20703,7 +20706,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -20732,7 +20735,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -20761,7 +20764,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -20790,7 +20793,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -20819,7 +20822,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -20848,7 +20851,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -20877,7 +20880,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -20906,7 +20909,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -20935,7 +20938,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -20964,7 +20967,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -20993,7 +20996,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -21051,7 +21054,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -21080,7 +21083,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -21109,7 +21112,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -21138,7 +21141,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -21167,7 +21170,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -21196,7 +21199,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -21225,7 +21228,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>103</v>
       </c>
@@ -21254,7 +21257,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -21283,7 +21286,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>103</v>
       </c>
@@ -21312,7 +21315,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -21341,7 +21344,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>103</v>
       </c>
@@ -21370,7 +21373,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -21399,7 +21402,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -21428,7 +21431,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -21457,7 +21460,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -21486,7 +21489,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -21515,7 +21518,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>103</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -21573,7 +21576,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>103</v>
       </c>
@@ -21602,7 +21605,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>103</v>
       </c>
@@ -21631,7 +21634,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>103</v>
       </c>
@@ -21660,7 +21663,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>103</v>
       </c>
@@ -21689,7 +21692,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>103</v>
       </c>
@@ -21718,7 +21721,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -21747,7 +21750,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>103</v>
       </c>
@@ -21776,7 +21779,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>103</v>
       </c>
@@ -21805,7 +21808,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>103</v>
       </c>
@@ -21834,7 +21837,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -21863,7 +21866,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>103</v>
       </c>
@@ -21892,7 +21895,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -21921,7 +21924,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -21950,7 +21953,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -21979,7 +21982,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -22066,7 +22069,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -22095,7 +22098,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -22124,7 +22127,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -22153,7 +22156,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -22182,7 +22185,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -22211,7 +22214,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -22240,7 +22243,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -22269,7 +22272,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -22298,7 +22301,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -22327,7 +22330,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -22385,7 +22388,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -22414,7 +22417,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -22443,7 +22446,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -22472,7 +22475,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -22501,7 +22504,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -22530,7 +22533,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -22559,7 +22562,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -22588,7 +22591,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -22617,7 +22620,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -22647,7 +22650,7 @@
       </c>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -22676,7 +22679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -22705,7 +22708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -22734,7 +22737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -22763,7 +22766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -22792,7 +22795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>75</v>
       </c>
@@ -22822,7 +22825,7 @@
       </c>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>75</v>
       </c>
@@ -22851,7 +22854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>75</v>
       </c>
@@ -22880,7 +22883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>75</v>
       </c>
@@ -22909,7 +22912,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -22938,7 +22941,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>75</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>75</v>
       </c>
@@ -22996,7 +22999,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>75</v>
       </c>
@@ -23025,7 +23028,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>75</v>
       </c>
@@ -23054,7 +23057,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>75</v>
       </c>
@@ -23083,7 +23086,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>75</v>
       </c>
@@ -23112,7 +23115,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>75</v>
       </c>
@@ -23141,7 +23144,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>75</v>
       </c>
@@ -23170,7 +23173,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>75</v>
       </c>
@@ -23209,24 +23212,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24520391-266E-43A5-996B-8266A8BA1492}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23255,7 +23258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -23284,7 +23287,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -23313,7 +23316,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -23344,5 +23347,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/1_input_files/EIA/EIA_AEO_data_series_IDs.xlsx
+++ b/Data/1_input_files/EIA/EIA_AEO_data_series_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatange\Documents\Repos\DECARB\Data\1_input_files\EIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skar\repos\EERE_decarb_anl\Data\1_input_files\EIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5DE7C-2ABF-406A-BC44-4DAA112C56C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E8807-95FB-4114-8B32-35DAE3450FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{60E9A370-38DD-44FB-8204-2D13A9CE7D36}"/>
+    <workbookView xWindow="3828" yWindow="4272" windowWidth="23040" windowHeight="12264" firstSheet="2" activeTab="6" xr2:uid="{60E9A370-38DD-44FB-8204-2D13A9CE7D36}"/>
   </bookViews>
   <sheets>
     <sheet name="energy_demand" sheetId="1" r:id="rId1"/>
@@ -2757,9 +2757,6 @@
     <t>ECI_VOS_MANF_AGC_NA_NA_NA_BLNY09DLR.A</t>
   </si>
   <si>
-    <t>Table: Table 70. Employment and Shipments by Industry, and Income and Employment by Region</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
@@ -2770,6 +2767,9 @@
   </si>
   <si>
     <t>ECI_VOS_MANF_L_NA_NA_NA_BLNY09DLR.A</t>
+  </si>
+  <si>
+    <t>Table: Table 67. Employment and Shipments by Industry, and Income and Employment by Region</t>
   </si>
 </sst>
 </file>
@@ -2827,14 +2827,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2856,9 +2853,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2896,7 +2893,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3002,7 +2999,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3144,7 +3141,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3154,26 +3151,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7420A6F-EDD1-4AAE-8553-B21D16488D10}">
   <dimension ref="A1:L291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26171875" customWidth="1"/>
-    <col min="7" max="7" width="18.83984375" customWidth="1"/>
-    <col min="8" max="8" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="75.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4224,7 +4221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4294,7 +4291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4329,7 +4326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4364,7 +4361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4469,7 +4466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -4574,7 +4571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -4609,7 +4606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -4784,7 +4781,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5032,7 +5029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5172,7 +5169,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -5242,7 +5239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -5312,7 +5309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -5487,7 +5484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -5522,7 +5519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -5557,7 +5554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -5592,7 +5589,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -5872,7 +5869,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -6082,7 +6079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -6327,7 +6324,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -6362,7 +6359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -6467,7 +6464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -6537,7 +6534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -6572,7 +6569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -6607,7 +6604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -6747,7 +6744,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -6782,7 +6779,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -7097,7 +7094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -7132,7 +7129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -7167,7 +7164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -7202,7 +7199,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -7307,7 +7304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7377,7 +7374,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -7447,23 +7444,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>216</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>217</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
         <v>139</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" t="s">
@@ -7482,23 +7479,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>216</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>217</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" t="s">
@@ -7517,23 +7514,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>217</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
         <v>221</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" t="s">
@@ -7552,23 +7549,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
         <v>223</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" t="s">
@@ -7587,23 +7584,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>216</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>217</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
         <v>225</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
         <v>214</v>
       </c>
       <c r="G126" t="s">
@@ -7622,23 +7619,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>216</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>217</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
         <v>227</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" t="s">
@@ -7657,23 +7654,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>216</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>52</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" t="s">
@@ -7692,23 +7689,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>216</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
         <v>214</v>
       </c>
       <c r="G129" t="s">
@@ -7727,23 +7724,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>216</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>217</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>52</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" t="s">
@@ -7762,23 +7759,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
         <v>235</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" t="s">
@@ -7797,23 +7794,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>217</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
         <v>237</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="2" t="s">
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" t="s">
@@ -7832,23 +7829,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>216</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" t="s">
@@ -7867,7 +7864,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -7902,7 +7899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -8042,7 +8039,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>216</v>
       </c>
@@ -8077,7 +8074,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>216</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>216</v>
       </c>
@@ -8147,7 +8144,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>216</v>
       </c>
@@ -8182,7 +8179,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>216</v>
       </c>
@@ -8217,7 +8214,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -8252,7 +8249,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>216</v>
       </c>
@@ -8287,7 +8284,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>216</v>
       </c>
@@ -8322,7 +8319,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>216</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>216</v>
       </c>
@@ -8427,7 +8424,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -8462,7 +8459,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>216</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>216</v>
       </c>
@@ -8532,7 +8529,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>216</v>
       </c>
@@ -8567,7 +8564,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>216</v>
       </c>
@@ -8602,7 +8599,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>216</v>
       </c>
@@ -8637,7 +8634,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -8672,7 +8669,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>216</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>216</v>
       </c>
@@ -8777,7 +8774,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -8812,7 +8809,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>216</v>
       </c>
@@ -8847,7 +8844,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -8882,7 +8879,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>216</v>
       </c>
@@ -8952,7 +8949,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>216</v>
       </c>
@@ -8987,7 +8984,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>216</v>
       </c>
@@ -9022,7 +9019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>216</v>
       </c>
@@ -9057,7 +9054,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>216</v>
       </c>
@@ -9092,7 +9089,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>216</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>216</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -9197,7 +9194,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>216</v>
       </c>
@@ -9232,7 +9229,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>216</v>
       </c>
@@ -9267,7 +9264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>216</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>216</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>216</v>
       </c>
@@ -9372,7 +9369,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -9407,7 +9404,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>216</v>
       </c>
@@ -9442,7 +9439,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -9477,7 +9474,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>216</v>
       </c>
@@ -9512,7 +9509,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>216</v>
       </c>
@@ -9547,7 +9544,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -9582,7 +9579,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>216</v>
       </c>
@@ -9617,7 +9614,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>216</v>
       </c>
@@ -9652,7 +9649,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>216</v>
       </c>
@@ -9687,7 +9684,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>216</v>
       </c>
@@ -9792,7 +9789,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -9827,7 +9824,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -9862,7 +9859,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -9897,7 +9894,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>216</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -9967,7 +9964,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>216</v>
       </c>
@@ -10002,7 +9999,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -10037,7 +10034,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -10107,7 +10104,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -10142,7 +10139,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -10177,7 +10174,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -10212,7 +10209,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -10247,7 +10244,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -10282,7 +10279,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -10317,7 +10314,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -10352,7 +10349,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -10387,7 +10384,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -10422,7 +10419,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>216</v>
       </c>
@@ -10457,7 +10454,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -10492,7 +10489,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -10527,7 +10524,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -10562,7 +10559,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -10632,7 +10629,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -10667,7 +10664,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -10702,7 +10699,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -10737,7 +10734,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -10772,7 +10769,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -10807,7 +10804,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -10842,7 +10839,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -10877,7 +10874,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -10912,7 +10909,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>216</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>216</v>
       </c>
@@ -10982,7 +10979,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -11017,7 +11014,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>216</v>
       </c>
@@ -11052,7 +11049,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>216</v>
       </c>
@@ -11087,7 +11084,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -11122,7 +11119,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>216</v>
       </c>
@@ -11157,7 +11154,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>216</v>
       </c>
@@ -11192,7 +11189,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -11227,7 +11224,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>216</v>
       </c>
@@ -11262,7 +11259,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -11297,7 +11294,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>216</v>
       </c>
@@ -11332,7 +11329,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>216</v>
       </c>
@@ -11367,7 +11364,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>216</v>
       </c>
@@ -11402,7 +11399,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -11437,7 +11434,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -11472,7 +11469,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>216</v>
       </c>
@@ -11507,7 +11504,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>216</v>
       </c>
@@ -11542,7 +11539,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -11577,7 +11574,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>216</v>
       </c>
@@ -11612,7 +11609,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -11647,7 +11644,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>216</v>
       </c>
@@ -11682,7 +11679,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -11717,7 +11714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>216</v>
       </c>
@@ -11752,7 +11749,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>216</v>
       </c>
@@ -11787,7 +11784,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -11822,7 +11819,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -11857,7 +11854,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>216</v>
       </c>
@@ -11892,7 +11889,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>216</v>
       </c>
@@ -11927,7 +11924,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>216</v>
       </c>
@@ -11962,7 +11959,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>216</v>
       </c>
@@ -11997,7 +11994,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>216</v>
       </c>
@@ -12032,7 +12029,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -12067,7 +12064,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>216</v>
       </c>
@@ -12102,7 +12099,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -12137,7 +12134,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -12172,7 +12169,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>216</v>
       </c>
@@ -12207,7 +12204,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>216</v>
       </c>
@@ -12242,7 +12239,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>216</v>
       </c>
@@ -12277,7 +12274,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>216</v>
       </c>
@@ -12312,7 +12309,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>216</v>
       </c>
@@ -12347,7 +12344,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>216</v>
       </c>
@@ -12382,7 +12379,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>216</v>
       </c>
@@ -12417,7 +12414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>216</v>
       </c>
@@ -12452,7 +12449,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>216</v>
       </c>
@@ -12487,7 +12484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>216</v>
       </c>
@@ -12522,7 +12519,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>216</v>
       </c>
@@ -12557,7 +12554,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>216</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>216</v>
       </c>
@@ -12627,7 +12624,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>216</v>
       </c>
@@ -12662,7 +12659,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>216</v>
       </c>
@@ -12697,7 +12694,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>216</v>
       </c>
@@ -12732,7 +12729,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>216</v>
       </c>
@@ -12767,7 +12764,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>216</v>
       </c>
@@ -12802,7 +12799,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>216</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>216</v>
       </c>
@@ -12872,7 +12869,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>216</v>
       </c>
@@ -12907,7 +12904,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>216</v>
       </c>
@@ -12942,7 +12939,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>216</v>
       </c>
@@ -12977,7 +12974,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>216</v>
       </c>
@@ -13012,7 +13009,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>216</v>
       </c>
@@ -13047,7 +13044,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>216</v>
       </c>
@@ -13082,7 +13079,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>216</v>
       </c>
@@ -13117,7 +13114,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>216</v>
       </c>
@@ -13152,7 +13149,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>216</v>
       </c>
@@ -13187,7 +13184,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>216</v>
       </c>
@@ -13222,7 +13219,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>216</v>
       </c>
@@ -13257,7 +13254,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>216</v>
       </c>
@@ -13292,7 +13289,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>216</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>216</v>
       </c>
@@ -13362,7 +13359,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>216</v>
       </c>
@@ -13410,20 +13407,20 @@
       <selection activeCell="F3" sqref="A3:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.578125" customWidth="1"/>
-    <col min="7" max="7" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.3671875" customWidth="1"/>
-    <col min="11" max="11" width="92.41796875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
+    <col min="11" max="11" width="92.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13461,7 +13458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -13496,7 +13493,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -13531,7 +13528,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>438</v>
       </c>
@@ -13566,7 +13563,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>438</v>
       </c>
@@ -13601,7 +13598,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -13636,7 +13633,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -13671,7 +13668,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -13706,7 +13703,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>438</v>
       </c>
@@ -13741,7 +13738,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -13776,7 +13773,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>438</v>
       </c>
@@ -13811,7 +13808,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>438</v>
       </c>
@@ -13846,7 +13843,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -13881,7 +13878,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -13916,7 +13913,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -13951,7 +13948,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>438</v>
       </c>
@@ -13986,7 +13983,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -14021,7 +14018,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -14056,7 +14053,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>438</v>
       </c>
@@ -14091,7 +14088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -14126,7 +14123,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>438</v>
       </c>
@@ -14161,7 +14158,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>438</v>
       </c>
@@ -14196,7 +14193,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>438</v>
       </c>
@@ -14231,7 +14228,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>438</v>
       </c>
@@ -14266,7 +14263,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>438</v>
       </c>
@@ -14301,7 +14298,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>438</v>
       </c>
@@ -14349,20 +14346,20 @@
       <selection activeCell="D3" sqref="A3:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.68359375" customWidth="1"/>
-    <col min="7" max="7" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.89453125" customWidth="1"/>
-    <col min="9" max="9" width="85.83984375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.88671875" customWidth="1"/>
+    <col min="9" max="9" width="85.88671875" customWidth="1"/>
     <col min="18" max="18" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14394,7 +14391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -14423,7 +14420,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -14452,7 +14449,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -14481,7 +14478,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -14510,7 +14507,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -14539,7 +14536,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -14568,7 +14565,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -14626,7 +14623,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -14655,7 +14652,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -14684,7 +14681,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -14713,7 +14710,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14742,7 +14739,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -14771,7 +14768,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -14800,7 +14797,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -14829,7 +14826,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -14858,7 +14855,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -14887,7 +14884,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -14916,7 +14913,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -14945,7 +14942,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -14974,7 +14971,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -15003,7 +15000,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -15032,7 +15029,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -15061,7 +15058,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -15090,7 +15087,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -15119,7 +15116,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -15148,7 +15145,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -15177,7 +15174,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -15206,7 +15203,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -15235,7 +15232,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -15264,7 +15261,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -15293,7 +15290,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -15322,7 +15319,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -15351,7 +15348,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -15380,7 +15377,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -15409,7 +15406,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -15438,7 +15435,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -15467,7 +15464,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -15496,7 +15493,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>216</v>
       </c>
@@ -15525,7 +15522,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -15554,7 +15551,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>216</v>
       </c>
@@ -15583,7 +15580,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -15612,7 +15609,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -15641,7 +15638,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -15670,7 +15667,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>216</v>
       </c>
@@ -15699,7 +15696,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -15728,7 +15725,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -15757,7 +15754,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -15786,7 +15783,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -15815,7 +15812,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -15844,7 +15841,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -15873,7 +15870,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -15902,7 +15899,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -15931,7 +15928,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>216</v>
       </c>
@@ -15960,7 +15957,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -15989,7 +15986,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>216</v>
       </c>
@@ -16031,19 +16028,19 @@
       <selection activeCell="A3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" customWidth="1"/>
-    <col min="6" max="6" width="47.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -16069,7 +16066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -16092,7 +16089,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -16118,7 +16115,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -16144,7 +16141,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -16167,7 +16164,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -16219,7 +16216,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -16242,7 +16239,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>512</v>
       </c>
@@ -16279,20 +16276,20 @@
       <selection activeCell="C3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16321,7 +16318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16347,7 +16344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16373,7 +16370,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -16399,7 +16396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -16425,7 +16422,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -16451,7 +16448,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -16477,7 +16474,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -16503,7 +16500,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -16529,7 +16526,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -16555,7 +16552,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -16581,7 +16578,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>438</v>
       </c>
@@ -16607,7 +16604,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>438</v>
       </c>
@@ -16633,7 +16630,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -16659,7 +16656,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -16685,7 +16682,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -16711,7 +16708,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -16737,7 +16734,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -16763,7 +16760,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -16789,8 +16786,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16806,21 +16803,21 @@
       <selection activeCell="A3" sqref="A3:XFD233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.578125" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16849,7 +16846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -16907,7 +16904,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -16936,7 +16933,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -16965,7 +16962,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -16994,7 +16991,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -17023,7 +17020,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -17052,7 +17049,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -17081,7 +17078,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -17110,7 +17107,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -17129,7 +17126,7 @@
       <c r="F11" t="s">
         <v>603</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
@@ -17139,26 +17136,26 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>438</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>440</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>625</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>444</v>
       </c>
       <c r="F12" t="s">
         <v>603</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
@@ -17168,26 +17165,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>440</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>621</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>444</v>
       </c>
       <c r="F13" t="s">
         <v>603</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
@@ -17197,26 +17194,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>629</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>444</v>
       </c>
       <c r="F14" t="s">
         <v>603</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
@@ -17226,26 +17223,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>629</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>444</v>
       </c>
       <c r="F15" t="s">
         <v>603</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15" t="s">
@@ -17255,26 +17252,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>438</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>629</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>444</v>
       </c>
       <c r="F16" t="s">
         <v>603</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
@@ -17284,26 +17281,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>629</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>444</v>
       </c>
       <c r="F17" t="s">
         <v>603</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
@@ -17313,26 +17310,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>438</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>629</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>623</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>444</v>
       </c>
       <c r="F18" t="s">
         <v>603</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
@@ -17342,7 +17339,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -17371,7 +17368,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -17400,7 +17397,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -17429,7 +17426,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -17458,7 +17455,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -17487,7 +17484,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -17516,7 +17513,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -17545,7 +17542,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -17574,7 +17571,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -17603,7 +17600,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -17622,7 +17619,7 @@
       <c r="F28" t="s">
         <v>603</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="s">
@@ -17632,7 +17629,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>438</v>
       </c>
@@ -17651,7 +17648,7 @@
       <c r="F29" t="s">
         <v>603</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
@@ -17661,7 +17658,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>438</v>
       </c>
@@ -17680,7 +17677,7 @@
       <c r="F30" t="s">
         <v>603</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
@@ -17690,7 +17687,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>438</v>
       </c>
@@ -17709,7 +17706,7 @@
       <c r="F31" t="s">
         <v>603</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
@@ -17719,7 +17716,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>438</v>
       </c>
@@ -17738,7 +17735,7 @@
       <c r="F32" t="s">
         <v>603</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
@@ -17748,7 +17745,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>438</v>
       </c>
@@ -17767,7 +17764,7 @@
       <c r="F33" t="s">
         <v>603</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" t="s">
         <v>19</v>
       </c>
       <c r="H33" t="s">
@@ -17777,7 +17774,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>438</v>
       </c>
@@ -17796,7 +17793,7 @@
       <c r="F34" t="s">
         <v>603</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
@@ -17806,7 +17803,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>438</v>
       </c>
@@ -17825,7 +17822,7 @@
       <c r="F35" t="s">
         <v>603</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
@@ -17835,7 +17832,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>438</v>
       </c>
@@ -17854,7 +17851,7 @@
       <c r="F36" t="s">
         <v>603</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
@@ -17864,7 +17861,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>438</v>
       </c>
@@ -17883,7 +17880,7 @@
       <c r="F37" t="s">
         <v>603</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
@@ -17893,7 +17890,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>438</v>
       </c>
@@ -17912,7 +17909,7 @@
       <c r="F38" t="s">
         <v>603</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
@@ -17922,7 +17919,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>438</v>
       </c>
@@ -17941,7 +17938,7 @@
       <c r="F39" t="s">
         <v>603</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
@@ -17951,7 +17948,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -17970,7 +17967,7 @@
       <c r="F40" t="s">
         <v>603</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40" t="s">
@@ -17980,7 +17977,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>438</v>
       </c>
@@ -17999,7 +17996,7 @@
       <c r="F41" t="s">
         <v>603</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
@@ -18009,7 +18006,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>438</v>
       </c>
@@ -18028,7 +18025,7 @@
       <c r="F42" t="s">
         <v>603</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
@@ -18038,7 +18035,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>438</v>
       </c>
@@ -18057,7 +18054,7 @@
       <c r="F43" t="s">
         <v>603</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
@@ -18067,7 +18064,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>438</v>
       </c>
@@ -18086,7 +18083,7 @@
       <c r="F44" t="s">
         <v>603</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44" t="s">
@@ -18096,7 +18093,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>438</v>
       </c>
@@ -18115,7 +18112,7 @@
       <c r="F45" t="s">
         <v>603</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45" t="s">
@@ -18125,7 +18122,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>438</v>
       </c>
@@ -18144,7 +18141,7 @@
       <c r="F46" t="s">
         <v>603</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
@@ -18154,7 +18151,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>438</v>
       </c>
@@ -18173,7 +18170,7 @@
       <c r="F47" t="s">
         <v>603</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
@@ -18183,7 +18180,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>438</v>
       </c>
@@ -18202,7 +18199,7 @@
       <c r="F48" t="s">
         <v>603</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
@@ -18212,7 +18209,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>438</v>
       </c>
@@ -18231,7 +18228,7 @@
       <c r="F49" t="s">
         <v>603</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
@@ -18241,7 +18238,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>438</v>
       </c>
@@ -18260,7 +18257,7 @@
       <c r="F50" t="s">
         <v>603</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50" t="s">
@@ -18270,7 +18267,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>438</v>
       </c>
@@ -18289,7 +18286,7 @@
       <c r="F51" t="s">
         <v>603</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
@@ -18299,7 +18296,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>438</v>
       </c>
@@ -18318,7 +18315,7 @@
       <c r="F52" t="s">
         <v>603</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
@@ -18328,7 +18325,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>438</v>
       </c>
@@ -18347,7 +18344,7 @@
       <c r="F53" t="s">
         <v>603</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
@@ -18357,7 +18354,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -18376,7 +18373,7 @@
       <c r="F54" t="s">
         <v>603</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
@@ -18386,7 +18383,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -18405,7 +18402,7 @@
       <c r="F55" t="s">
         <v>603</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
@@ -18415,26 +18412,26 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>438</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>473</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>635</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>659</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>636</v>
       </c>
       <c r="F56" t="s">
         <v>603</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="H56" t="s">
@@ -18444,26 +18441,26 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>438</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
         <v>440</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>625</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" t="s">
         <v>444</v>
       </c>
       <c r="F57" t="s">
         <v>603</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
@@ -18473,26 +18470,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>438</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
         <v>440</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>621</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" t="s">
         <v>444</v>
       </c>
       <c r="F58" t="s">
         <v>603</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
@@ -18502,26 +18499,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>438</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
         <v>629</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" t="s">
         <v>444</v>
       </c>
       <c r="F59" t="s">
         <v>603</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
@@ -18531,26 +18528,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>438</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
         <v>629</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" t="s">
         <v>444</v>
       </c>
       <c r="F60" t="s">
         <v>603</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
@@ -18560,26 +18557,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>438</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
         <v>629</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" t="s">
         <v>444</v>
       </c>
       <c r="F61" t="s">
         <v>603</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
@@ -18589,26 +18586,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>438</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
         <v>629</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" t="s">
         <v>444</v>
       </c>
       <c r="F62" t="s">
         <v>603</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
@@ -18618,26 +18615,26 @@
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>438</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
         <v>629</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>623</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" t="s">
         <v>444</v>
       </c>
       <c r="F63" t="s">
         <v>603</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
@@ -18647,7 +18644,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -18676,7 +18673,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -18705,7 +18702,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -18734,7 +18731,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -18763,7 +18760,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -18792,7 +18789,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -18821,7 +18818,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -18850,7 +18847,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -18879,7 +18876,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -18908,7 +18905,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -18937,7 +18934,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -18966,7 +18963,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -18995,7 +18992,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -19024,7 +19021,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -19082,7 +19079,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -19111,7 +19108,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -19140,7 +19137,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -19169,7 +19166,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -19198,7 +19195,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -19227,7 +19224,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -19256,7 +19253,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -19285,7 +19282,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -19314,7 +19311,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -19343,7 +19340,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -19372,7 +19369,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -19401,7 +19398,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -19430,7 +19427,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -19459,7 +19456,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -19488,7 +19485,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -19517,7 +19514,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -19546,7 +19543,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -19575,7 +19572,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -19604,7 +19601,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -19662,7 +19659,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -19691,7 +19688,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -19720,7 +19717,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -19749,7 +19746,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -19778,7 +19775,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -19807,7 +19804,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -19836,7 +19833,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -19865,7 +19862,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -19894,7 +19891,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -19923,7 +19920,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -19952,7 +19949,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -19981,7 +19978,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -20010,7 +20007,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -20039,7 +20036,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -20068,7 +20065,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -20097,7 +20094,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -20126,7 +20123,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -20155,7 +20152,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -20184,7 +20181,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -20213,7 +20210,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -20242,7 +20239,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -20271,7 +20268,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -20300,7 +20297,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -20329,7 +20326,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -20358,7 +20355,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -20387,7 +20384,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -20416,7 +20413,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>103</v>
       </c>
@@ -20445,7 +20442,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -20474,7 +20471,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -20503,7 +20500,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -20532,7 +20529,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -20561,7 +20558,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -20590,7 +20587,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -20619,7 +20616,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -20648,7 +20645,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -20677,7 +20674,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -20706,7 +20703,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -20735,7 +20732,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -20764,7 +20761,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -20793,7 +20790,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -20822,7 +20819,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -20851,7 +20848,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -20880,7 +20877,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -20909,7 +20906,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -20938,7 +20935,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -20967,7 +20964,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -20996,7 +20993,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -21025,7 +21022,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -21054,7 +21051,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -21083,7 +21080,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -21112,7 +21109,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -21141,7 +21138,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -21170,7 +21167,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -21199,7 +21196,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -21228,7 +21225,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>103</v>
       </c>
@@ -21257,7 +21254,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -21286,7 +21283,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>103</v>
       </c>
@@ -21315,7 +21312,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -21344,7 +21341,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>103</v>
       </c>
@@ -21373,7 +21370,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -21402,7 +21399,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -21431,7 +21428,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -21460,7 +21457,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -21489,7 +21486,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -21518,7 +21515,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>103</v>
       </c>
@@ -21547,7 +21544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -21576,7 +21573,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>103</v>
       </c>
@@ -21605,7 +21602,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>103</v>
       </c>
@@ -21634,7 +21631,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>103</v>
       </c>
@@ -21663,7 +21660,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>103</v>
       </c>
@@ -21692,7 +21689,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>103</v>
       </c>
@@ -21721,7 +21718,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -21750,7 +21747,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>103</v>
       </c>
@@ -21779,7 +21776,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>103</v>
       </c>
@@ -21808,7 +21805,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>103</v>
       </c>
@@ -21837,7 +21834,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -21866,7 +21863,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>103</v>
       </c>
@@ -21895,7 +21892,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -21924,7 +21921,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -21953,7 +21950,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -21982,7 +21979,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -22011,7 +22008,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -22040,7 +22037,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -22069,7 +22066,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -22098,7 +22095,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -22127,7 +22124,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -22156,7 +22153,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -22185,7 +22182,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -22214,7 +22211,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -22243,7 +22240,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -22272,7 +22269,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -22301,7 +22298,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -22330,7 +22327,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -22359,7 +22356,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -22388,7 +22385,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -22417,7 +22414,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -22446,7 +22443,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -22475,7 +22472,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -22504,7 +22501,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -22533,7 +22530,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -22562,7 +22559,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -22591,7 +22588,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -22620,7 +22617,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -22648,9 +22645,9 @@
       <c r="I201" t="s">
         <v>820</v>
       </c>
-      <c r="K201" s="4"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -22679,7 +22676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -22708,7 +22705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -22737,7 +22734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -22766,7 +22763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -22795,7 +22792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>75</v>
       </c>
@@ -22823,9 +22820,9 @@
       <c r="I207" t="s">
         <v>77</v>
       </c>
-      <c r="K207" s="7"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K207" s="4"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>75</v>
       </c>
@@ -22854,7 +22851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>75</v>
       </c>
@@ -22883,7 +22880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>75</v>
       </c>
@@ -22912,7 +22909,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -22941,7 +22938,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>75</v>
       </c>
@@ -22970,7 +22967,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>75</v>
       </c>
@@ -22999,7 +22996,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>75</v>
       </c>
@@ -23028,7 +23025,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>75</v>
       </c>
@@ -23057,7 +23054,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>75</v>
       </c>
@@ -23086,7 +23083,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>75</v>
       </c>
@@ -23115,7 +23112,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>75</v>
       </c>
@@ -23144,7 +23141,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>75</v>
       </c>
@@ -23173,7 +23170,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>75</v>
       </c>
@@ -23212,24 +23209,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24520391-266E-43A5-996B-8266A8BA1492}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23258,7 +23255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -23284,10 +23281,10 @@
         <v>903</v>
       </c>
       <c r="I2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -23295,7 +23292,7 @@
         <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D3" t="s">
         <v>901</v>
@@ -23310,13 +23307,13 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -23324,7 +23321,7 @@
         <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D4" t="s">
         <v>901</v>
@@ -23339,10 +23336,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
+        <v>907</v>
+      </c>
+      <c r="I4" t="s">
         <v>908</v>
-      </c>
-      <c r="I4" t="s">
-        <v>904</v>
       </c>
     </row>
   </sheetData>
